--- a/Excels/IceBlock_碎裂冰块表.xlsx
+++ b/Excels/IceBlock_碎裂冰块表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -46,6 +46,12 @@
     <t xml:space="preserve">mesh</t>
   </si>
   <si>
+    <t xml:space="preserve">impulse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">triggerSpeedZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
@@ -59,6 +65,12 @@
   </si>
   <si>
     <t xml:space="preserve">材质</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z轴冲量大小</t>
+  </si>
+  <si>
+    <t xml:space="preserve">触发冰块碎裂速度</t>
   </si>
   <si>
     <t xml:space="preserve">6192|4793|1737</t>
@@ -92,7 +104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -128,6 +140,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -174,7 +193,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -191,6 +210,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -203,7 +226,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -230,17 +253,18 @@
   </sheetPr>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="34.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.58"/>
   </cols>
   <sheetData>
@@ -260,7 +284,12 @@
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="0"/>
+      <c r="F1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -278,136 +307,176 @@
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="0"/>
+      <c r="F2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" s="3" customFormat="true" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="0"/>
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F4" s="0"/>
     </row>
     <row r="5" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>24512</v>
       </c>
-      <c r="F5" s="0"/>
+      <c r="F5" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="6" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>16</v>
+      <c r="B6" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>24512</v>
       </c>
-      <c r="F6" s="0"/>
+      <c r="F6" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>17</v>
+      <c r="B7" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>24512</v>
       </c>
-      <c r="F7" s="0"/>
+      <c r="F7" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="8" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>15</v>
+      <c r="D8" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>24512</v>
       </c>
-      <c r="F8" s="0"/>
+      <c r="F8" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>24512</v>
       </c>
-      <c r="F9" s="0"/>
+      <c r="F9" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>20</v>
+      <c r="B10" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>24512</v>
       </c>
-      <c r="F10" s="0"/>
+      <c r="F10" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="0"/>
@@ -416,196 +485,196 @@
       <c r="F12" s="0"/>
     </row>
     <row r="13" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="0"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="0"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="0"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="0"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="0"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="0"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="0"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="0"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
       <c r="F21" s="0"/>
     </row>
     <row r="22" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
       <c r="F22" s="0"/>
     </row>
     <row r="23" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
       <c r="F23" s="0"/>
     </row>
     <row r="24" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
       <c r="F24" s="0"/>
     </row>
     <row r="25" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
       <c r="F25" s="0"/>
     </row>
     <row r="26" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="D26" s="7"/>
       <c r="F26" s="0"/>
     </row>
     <row r="27" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="D27" s="7"/>
       <c r="F27" s="0"/>
     </row>
     <row r="28" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
       <c r="F28" s="0"/>
     </row>
     <row r="29" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
       <c r="F29" s="0"/>
     </row>
     <row r="30" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
       <c r="F30" s="0"/>
     </row>
     <row r="31" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
       <c r="F31" s="0"/>
     </row>
     <row r="32" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
       <c r="F32" s="0"/>
     </row>
     <row r="33" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
       <c r="F33" s="0"/>
     </row>
     <row r="34" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
       <c r="F34" s="0"/>
     </row>
     <row r="35" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
       <c r="F35" s="0"/>
     </row>
     <row r="36" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
       <c r="F36" s="0"/>
     </row>
     <row r="37" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
       <c r="F37" s="0"/>
     </row>
     <row r="38" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
       <c r="F38" s="0"/>
     </row>
     <row r="39" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
       <c r="F39" s="0"/>
     </row>
     <row r="40" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
       <c r="F40" s="0"/>
     </row>
     <row r="41" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
       <c r="F41" s="0"/>
     </row>
     <row r="42" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
       <c r="F42" s="0"/>
     </row>
     <row r="43" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
       <c r="F43" s="0"/>
     </row>
     <row r="44" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
       <c r="F44" s="0"/>
     </row>
     <row r="45" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Excels/IceBlock_碎裂冰块表.xlsx
+++ b/Excels/IceBlock_碎裂冰块表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -28,9 +28,6 @@
     <t xml:space="preserve">int[]</t>
   </si>
   <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
@@ -43,7 +40,13 @@
     <t xml:space="preserve">iceScale</t>
   </si>
   <si>
-    <t xml:space="preserve">mesh</t>
+    <t xml:space="preserve">triggerRot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">triggerScale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effectScale</t>
   </si>
   <si>
     <t xml:space="preserve">impulse</t>
@@ -64,7 +67,13 @@
     <t xml:space="preserve">冰块大小</t>
   </si>
   <si>
-    <t xml:space="preserve">材质</t>
+    <t xml:space="preserve">触发器旋转</t>
+  </si>
+  <si>
+    <t xml:space="preserve">触发器大小</t>
+  </si>
+  <si>
+    <t xml:space="preserve">碎裂特效大小</t>
   </si>
   <si>
     <t xml:space="preserve">z轴冲量大小</t>
@@ -73,28 +82,31 @@
     <t xml:space="preserve">触发冰块碎裂速度</t>
   </si>
   <si>
-    <t xml:space="preserve">6192|4793|1737</t>
+    <t xml:space="preserve">5706.10|3481.74|1707.50</t>
   </si>
   <si>
     <t xml:space="preserve">0|0|0</t>
   </si>
   <si>
+    <t xml:space="preserve">0.1|0.1|0.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">1|1|1</t>
   </si>
   <si>
-    <t xml:space="preserve">6392|4793|1737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6592|4793|1737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6192|4993|1737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6392|4993|1737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6592|4993|1737</t>
+    <t xml:space="preserve">5376.10|3481.74|1707.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5046.10|3481.74|1707.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6046.10|3481.74|1707.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6386.10|3481.74|1707.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6736.10|3481.74|1707.50</t>
   </si>
 </sst>
 </file>
@@ -104,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -143,13 +155,6 @@
       <family val="0"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -193,7 +198,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -224,10 +229,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -251,24 +252,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.75390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="14.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="35.58"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -282,84 +284,108 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" s="3" customFormat="true" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="true" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F4" s="0"/>
+      <c r="H4" s="0"/>
     </row>
     <row r="5" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>24512</v>
-      </c>
-      <c r="F5" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="I5" s="1" t="n">
         <v>300</v>
       </c>
     </row>
@@ -367,22 +393,28 @@
       <c r="A6" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>20</v>
+      <c r="B6" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>24512</v>
-      </c>
-      <c r="F6" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="I6" s="1" t="n">
         <v>300</v>
       </c>
     </row>
@@ -390,22 +422,28 @@
       <c r="A7" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>21</v>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>24512</v>
-      </c>
-      <c r="F7" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="I7" s="1" t="n">
         <v>300</v>
       </c>
     </row>
@@ -414,21 +452,27 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>24512</v>
-      </c>
-      <c r="F8" s="0" t="n">
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="I8" s="1" t="n">
         <v>300</v>
       </c>
     </row>
@@ -436,22 +480,28 @@
       <c r="A9" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>23</v>
+      <c r="B9" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>24512</v>
-      </c>
-      <c r="F9" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="I9" s="1" t="n">
         <v>300</v>
       </c>
     </row>
@@ -459,226 +509,245 @@
       <c r="A10" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>24</v>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>24512</v>
-      </c>
-      <c r="F10" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="I10" s="1" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="0"/>
+      <c r="H11" s="0"/>
     </row>
     <row r="12" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="0"/>
+      <c r="H12" s="0"/>
     </row>
     <row r="13" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="0"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="0"/>
       <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="0"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="0"/>
       <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="0"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="0"/>
       <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="0"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="0"/>
       <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="0"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="H17" s="0"/>
       <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="0"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="0"/>
       <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="0"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="H19" s="0"/>
       <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="0"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="H20" s="0"/>
       <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="F21" s="0"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="H21" s="0"/>
     </row>
     <row r="22" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="F22" s="0"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="H22" s="0"/>
     </row>
     <row r="23" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="F23" s="0"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="H23" s="0"/>
     </row>
     <row r="24" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="F24" s="0"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="H24" s="0"/>
     </row>
     <row r="25" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="F25" s="0"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="H25" s="0"/>
     </row>
     <row r="26" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
       <c r="D26" s="7"/>
-      <c r="F26" s="0"/>
+      <c r="E26" s="7"/>
+      <c r="H26" s="0"/>
     </row>
     <row r="27" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
       <c r="D27" s="7"/>
-      <c r="F27" s="0"/>
+      <c r="E27" s="7"/>
+      <c r="H27" s="0"/>
     </row>
     <row r="28" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="F28" s="0"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="H28" s="0"/>
     </row>
     <row r="29" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="F29" s="0"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="H29" s="0"/>
     </row>
     <row r="30" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="F30" s="0"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="H30" s="0"/>
     </row>
     <row r="31" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="F31" s="0"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="H31" s="0"/>
     </row>
     <row r="32" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="F32" s="0"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="H32" s="0"/>
     </row>
     <row r="33" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="F33" s="0"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="H33" s="0"/>
     </row>
     <row r="34" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="F34" s="0"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="H34" s="0"/>
     </row>
     <row r="35" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="F35" s="0"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="H35" s="0"/>
     </row>
     <row r="36" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="F36" s="0"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="H36" s="0"/>
     </row>
     <row r="37" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="F37" s="0"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="H37" s="0"/>
     </row>
     <row r="38" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="F38" s="0"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="H38" s="0"/>
     </row>
     <row r="39" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="F39" s="0"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="H39" s="0"/>
     </row>
     <row r="40" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="F40" s="0"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="H40" s="0"/>
     </row>
     <row r="41" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="F41" s="0"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="H41" s="0"/>
     </row>
     <row r="42" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="F42" s="0"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="H42" s="0"/>
     </row>
     <row r="43" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="F43" s="0"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="H43" s="0"/>
     </row>
     <row r="44" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="F44" s="0"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="H44" s="0"/>
     </row>
     <row r="45" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F45" s="0"/>
+      <c r="H45" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
